--- a/Weekly Report/技术支持部第二组工作安排.xlsx
+++ b/Weekly Report/技术支持部第二组工作安排.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HanSir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFCA\000\Project-Process-library1\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="102">
   <si>
     <t>分组</t>
   </si>
@@ -1061,14 +1061,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1083,15 +1092,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1498,9 +1498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1520,13 +1520,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>63</v>
       </c>
@@ -1547,41 +1547,41 @@
       <c r="A2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f>SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f>SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f>SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f>SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f>SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1950,13 +1950,13 @@
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1"/>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="29" t="s">
         <v>63</v>
       </c>
@@ -1977,41 +1977,41 @@
       <c r="A14" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="36">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36">
         <f>SUM(B14+1)</f>
         <v>42892</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34">
+      <c r="E14" s="36"/>
+      <c r="F14" s="36">
         <f>SUM(D14+1)</f>
         <v>42893</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34">
+      <c r="G14" s="36"/>
+      <c r="H14" s="36">
         <f>SUM(F14+1)</f>
         <v>42894</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34">
+      <c r="I14" s="36"/>
+      <c r="J14" s="36">
         <f>SUM(H14+1)</f>
         <v>42895</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34">
+      <c r="K14" s="36"/>
+      <c r="L14" s="36">
         <f>SUM(J14+1)</f>
         <v>42896</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34">
+      <c r="M14" s="36"/>
+      <c r="N14" s="36">
         <f>SUM(L14+1)</f>
         <v>42897</v>
       </c>
-      <c r="O14" s="34"/>
+      <c r="O14" s="36"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="35"/>
@@ -2181,14 +2181,30 @@
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
+      <c r="D19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
@@ -2352,16 +2368,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="A14:A15"/>
@@ -2370,6 +2376,16 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2392,32 +2408,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
@@ -2426,8 +2442,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2482,7 +2498,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2502,7 +2518,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2520,7 +2536,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2538,7 +2554,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2558,7 +2574,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
         <v>48</v>
       </c>
@@ -2576,7 +2592,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2594,7 +2610,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2614,7 +2630,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2632,7 +2648,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2670,7 +2686,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2690,7 +2706,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
@@ -2708,7 +2724,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
@@ -2726,7 +2742,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2746,7 +2762,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
@@ -2764,7 +2780,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -2782,7 +2798,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2802,7 +2818,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -2820,7 +2836,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2878,7 +2894,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="42" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2898,7 +2914,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -2916,7 +2932,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2936,7 +2952,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
@@ -2954,7 +2970,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
@@ -2972,7 +2988,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
@@ -2990,7 +3006,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
@@ -3008,7 +3024,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
@@ -3026,7 +3042,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
@@ -3044,7 +3060,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3" t="s">
         <v>18</v>
       </c>
@@ -3062,7 +3078,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
@@ -3080,7 +3096,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3098,7 +3114,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
@@ -3117,11 +3133,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3132,6 +3143,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Report/技术支持部第二组工作安排.xlsx
+++ b/Weekly Report/技术支持部第二组工作安排.xlsx
@@ -540,7 +540,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +567,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDD9C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,13 +1073,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,19 +1106,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1498,9 +1519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19:K19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1520,13 +1541,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>63</v>
       </c>
@@ -1547,41 +1568,41 @@
       <c r="A2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f>SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f>SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f>SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f>SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f>SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1629,7 +1650,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="28" t="s">
@@ -1668,7 +1689,7 @@
       <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -1707,7 +1728,7 @@
       <c r="O5" s="28"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -1746,7 +1767,7 @@
       <c r="O6" s="28"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -1785,7 +1806,7 @@
       <c r="O7" s="28"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="28" t="s">
@@ -1824,7 +1845,7 @@
       <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -1863,7 +1884,7 @@
       <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="45" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -1902,7 +1923,7 @@
       <c r="O10" s="28"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -1950,13 +1971,13 @@
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1"/>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="29" t="s">
         <v>63</v>
       </c>
@@ -1977,41 +1998,41 @@
       <c r="A14" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="34">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34">
         <f>SUM(B14+1)</f>
         <v>42892</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34">
         <f>SUM(D14+1)</f>
         <v>42893</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36">
+      <c r="G14" s="34"/>
+      <c r="H14" s="34">
         <f>SUM(F14+1)</f>
         <v>42894</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36">
+      <c r="I14" s="34"/>
+      <c r="J14" s="34">
         <f>SUM(H14+1)</f>
         <v>42895</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36">
+      <c r="K14" s="34"/>
+      <c r="L14" s="34">
         <f>SUM(J14+1)</f>
         <v>42896</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36">
+      <c r="M14" s="34"/>
+      <c r="N14" s="34">
         <f>SUM(L14+1)</f>
         <v>42897</v>
       </c>
-      <c r="O14" s="36"/>
+      <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="35"/>
@@ -2059,7 +2080,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -2098,7 +2119,7 @@
       <c r="O16" s="28"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="28" t="s">
@@ -2137,7 +2158,7 @@
       <c r="O17" s="28"/>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="28" t="s">
@@ -2176,7 +2197,7 @@
       <c r="O18" s="28"/>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="28"/>
@@ -2211,7 +2232,7 @@
       <c r="O19" s="28"/>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -2250,7 +2271,7 @@
       <c r="O20" s="28"/>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="28" t="s">
@@ -2289,7 +2310,7 @@
       <c r="O21" s="28"/>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="45" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2328,7 +2349,7 @@
       <c r="O22" s="28"/>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="28" t="s">
@@ -2368,6 +2389,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="A14:A15"/>
@@ -2376,16 +2407,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2408,32 +2429,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
@@ -2442,8 +2463,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2498,7 +2519,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2518,7 +2539,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2536,7 +2557,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2554,7 +2575,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2574,7 +2595,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
         <v>48</v>
       </c>
@@ -2592,7 +2613,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2631,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2630,7 +2651,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2648,7 +2669,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2686,7 +2707,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2706,7 +2727,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
@@ -2724,7 +2745,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
@@ -2742,7 +2763,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2762,7 +2783,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
@@ -2780,7 +2801,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -2798,7 +2819,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2818,7 +2839,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -2836,7 +2857,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2894,7 +2915,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2914,7 +2935,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -2932,7 +2953,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="40" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2952,7 +2973,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
@@ -2970,7 +2991,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
@@ -2988,7 +3009,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
@@ -3006,7 +3027,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
@@ -3024,7 +3045,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
@@ -3042,7 +3063,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
@@ -3060,7 +3081,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>18</v>
       </c>
@@ -3078,7 +3099,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
@@ -3096,7 +3117,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3114,7 +3135,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
@@ -3133,6 +3154,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3143,11 +3169,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Report/技术支持部第二组工作安排.xlsx
+++ b/Weekly Report/技术支持部第二组工作安排.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFCA\000\Project-Process-library1\Weekly Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRE\gitlibrary\Project-Process-library\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,16 @@
     <sheet name="第二组" sheetId="6" r:id="rId1"/>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="96">
   <si>
     <t>分组</t>
   </si>
@@ -285,18 +289,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>东盟海产品交易所证书应用解决方案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDFSealSADK/OFFICESealSADK/电子签章系统/RA产品学习及产品部署</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>百瑞信托询价函技术方案编制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>大宗产品交易平台证书应用解决方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -354,18 +346,6 @@
   </si>
   <si>
     <t>各行业无纸化方案讲解</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑州银行无纸化（外出）、整理本组周报</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑州银行无纸化（外出）柜面业务对接</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑州银行无纸化（外出）生产数据准备</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -970,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,14 +1053,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1097,23 +1098,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="94">
@@ -1228,6 +1214,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="newest"/>
+      <sheetName val="newest (2)"/>
+      <sheetName val="20160328-20160403"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>2</v>
+          </cell>
+          <cell r="D4">
+            <v>3</v>
+          </cell>
+          <cell r="E4">
+            <v>4</v>
+          </cell>
+          <cell r="F4">
+            <v>5</v>
+          </cell>
+          <cell r="G4">
+            <v>6</v>
+          </cell>
+          <cell r="H4">
+            <v>7</v>
+          </cell>
+          <cell r="I4">
+            <v>8</v>
+          </cell>
+          <cell r="J4">
+            <v>9</v>
+          </cell>
+          <cell r="K4">
+            <v>10</v>
+          </cell>
+          <cell r="L4">
+            <v>11</v>
+          </cell>
+          <cell r="M4">
+            <v>12</v>
+          </cell>
+          <cell r="N4">
+            <v>13</v>
+          </cell>
+          <cell r="O4">
+            <v>14</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="newest"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,33 +1582,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="23.875" customWidth="1"/>
-    <col min="10" max="11" width="25.125" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="15" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="29" t="s">
         <v>63</v>
       </c>
@@ -1565,47 +1616,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="40">
         <f>DATE(2017,5,29)</f>
         <v>42884</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40">
         <f>SUM(B2+1)</f>
         <v>42885</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40">
         <f>SUM(D2+1)</f>
         <v>42886</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40">
         <f>SUM(F2+1)</f>
         <v>42887</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40">
         <f>SUM(H2+1)</f>
         <v>42888</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40">
         <f>SUM(J2+1)</f>
         <v>42889</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40">
         <f>SUM(L2+1)</f>
         <v>42890</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -1649,335 +1700,379 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="34">
+        <f>[1]newest!$B$4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
+        <f>[1]newest!$C$4</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="34">
+        <f>[1]newest!$D$4</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="34">
+        <f>[1]newest!$E$4</f>
+        <v>4</v>
+      </c>
+      <c r="F5" s="34">
+        <f>[1]newest!$F$4</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="34">
+        <f>[1]newest!$G$4</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="34">
+        <f>[1]newest!$H$4</f>
+        <v>7</v>
+      </c>
+      <c r="I5" s="34">
+        <f>[1]newest!$I$4</f>
+        <v>8</v>
+      </c>
+      <c r="J5" s="34">
+        <f>[1]newest!$J$4</f>
+        <v>9</v>
+      </c>
+      <c r="K5" s="34">
+        <f>[1]newest!$K$4</f>
+        <v>10</v>
+      </c>
+      <c r="L5" s="34">
+        <f>[1]newest!$L$4</f>
+        <v>11</v>
+      </c>
+      <c r="M5" s="34">
+        <f>[1]newest!$M$4</f>
+        <v>12</v>
+      </c>
+      <c r="N5" s="34">
+        <f>[1]newest!$N$4</f>
+        <v>13</v>
+      </c>
+      <c r="O5" s="34">
+        <f>[1]newest!$O$4</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="34" t="e">
+        <f>[2]newest!$B$4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="34" t="e">
+        <f>[2]newest!$C$4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="34">
+        <f>[1]newest!$D$4</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="34">
+        <f>[1]newest!$E$4</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="34">
+        <f>[1]newest!$F$4</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="34">
+        <f>[1]newest!$G$4</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="34">
+        <f>[1]newest!$H$4</f>
+        <v>7</v>
+      </c>
+      <c r="I6" s="34">
+        <f>[1]newest!$I$4</f>
+        <v>8</v>
+      </c>
+      <c r="J6" s="34">
+        <f>[1]newest!$J$4</f>
+        <v>9</v>
+      </c>
+      <c r="K6" s="34">
+        <f>[1]newest!$K$4</f>
+        <v>10</v>
+      </c>
+      <c r="L6" s="34">
+        <f>[1]newest!$L$4</f>
+        <v>11</v>
+      </c>
+      <c r="M6" s="34">
+        <f>[1]newest!$M$4</f>
+        <v>12</v>
+      </c>
+      <c r="N6" s="34">
+        <f>[1]newest!$N$4</f>
+        <v>13</v>
+      </c>
+      <c r="O6" s="34">
+        <f>[1]newest!$O$4</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A8" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A11" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A6" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A8" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A9" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A10" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A11" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="28" t="s">
+      <c r="I11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="J11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="K11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="L11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="M11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="N11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="28" t="s">
+      <c r="O11" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24" customHeight="1"/>
     <row r="13" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="29" t="s">
         <v>63</v>
       </c>
@@ -1995,47 +2090,47 @@
       <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="40">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40">
         <f>SUM(B14+1)</f>
         <v>42892</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40">
         <f>SUM(D14+1)</f>
         <v>42893</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34">
+      <c r="G14" s="40"/>
+      <c r="H14" s="40">
         <f>SUM(F14+1)</f>
         <v>42894</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34">
+      <c r="I14" s="40"/>
+      <c r="J14" s="40">
         <f>SUM(H14+1)</f>
         <v>42895</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34">
+      <c r="K14" s="40"/>
+      <c r="L14" s="40">
         <f>SUM(J14+1)</f>
         <v>42896</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34">
+      <c r="M14" s="40"/>
+      <c r="N14" s="40">
         <f>SUM(L14+1)</f>
         <v>42897</v>
       </c>
-      <c r="O14" s="34"/>
+      <c r="O14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
-      <c r="A15" s="35"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="32" t="s">
         <v>2</v>
       </c>
@@ -2080,7 +2175,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -2119,7 +2214,7 @@
       <c r="O16" s="28"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="28" t="s">
@@ -2158,38 +2253,38 @@
       <c r="O17" s="28"/>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="I18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>87</v>
-      </c>
       <c r="J18" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -2197,7 +2292,7 @@
       <c r="O18" s="28"/>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="28"/>
@@ -2232,7 +2327,7 @@
       <c r="O19" s="28"/>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="35" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -2271,7 +2366,7 @@
       <c r="O20" s="28"/>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="28" t="s">
@@ -2310,38 +2405,38 @@
       <c r="O21" s="28"/>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>98</v>
-      </c>
       <c r="I22" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -2349,7 +2444,7 @@
       <c r="O22" s="28"/>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="28" t="s">
@@ -2389,16 +2484,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="A14:A15"/>
@@ -2407,9 +2492,20 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2421,7 +2517,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
     <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
@@ -2429,32 +2525,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
@@ -2463,8 +2559,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2519,7 +2615,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2539,7 +2635,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2557,7 +2653,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2575,7 +2671,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="46" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2595,7 +2691,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7" t="s">
         <v>48</v>
       </c>
@@ -2613,7 +2709,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2631,7 +2727,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="46" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2651,7 +2747,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2669,7 +2765,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2707,7 +2803,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="46" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2727,7 +2823,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
@@ -2745,7 +2841,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
@@ -2763,7 +2859,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2783,7 +2879,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
@@ -2801,7 +2897,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -2819,7 +2915,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="46" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2839,7 +2935,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -2857,7 +2953,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2915,7 +3011,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="46" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2935,7 +3031,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -2953,7 +3049,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2973,7 +3069,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
@@ -2991,7 +3087,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
@@ -3009,7 +3105,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
@@ -3027,7 +3123,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
@@ -3045,7 +3141,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
@@ -3063,7 +3159,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
@@ -3081,7 +3177,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="3" t="s">
         <v>18</v>
       </c>
@@ -3099,7 +3195,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
@@ -3117,7 +3213,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3135,7 +3231,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
@@ -3154,11 +3250,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -3169,6 +3260,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
